--- a/Martínez López Miguel Ángel 20212.xlsx
+++ b/Martínez López Miguel Ángel 20212.xlsx
@@ -1666,7 +1666,7 @@
         <v>159</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1803,7 +1803,7 @@
         <v>163</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
